--- a/Workflows/P2-WorkflowForZipRecruiter/exceltestsheet/testdata.xlsx
+++ b/Workflows/P2-WorkflowForZipRecruiter/exceltestsheet/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Projects\Goldeneyez-P2\Goldeneyez-P2\Workflows\P2-WorkflowForZipRecruiter\exceltestsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81F10F0-A8E6-4BE4-9D62-420536894565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DD125B-3282-4AF3-9004-4F62EE9DE1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="3075" yWindow="2280" windowWidth="21585" windowHeight="11835" firstSheet="0" activeTab="0" xr2:uid="{2293894A-00AC-4E8F-B2D5-30D97C5CB308}"/>
   </x:bookViews>
@@ -35,7 +35,143 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <x:si>
+    <x:t>jobTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobCompany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobLocation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobDescription</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Helpdesk Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jobot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salt Lake City, UT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key areas of responsibility include providing end-user support for Windows Desktop OS (v7/v10), Office 365, PC Imaging and general IT support. * Additionally, the successful candidate will also ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAJ3H-DM6APZykws1-Bel_KY1rUgYytRzaR-qw3eE1356Lw42IOuItYboykSu6Dg8On03OyZ4YhwmZR6-LucLdem9C_hjB286ZjxPv4PzVrB4_9E4tvfATOBiIHJx9zVxw5_EFTRdPX6yN5eoQYaedRrdsY35Rh4VswRpxRqLQvyx_nhXH4BEQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field Service Technician - Sign-on bonus and relocation packages available!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crown Equipment Corporation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watch A Day in the Life of a Crown Field Service Technician! click here For a limited time choose your Incentive! For a limited time new hires will have the option to pick 1 of the 3 incentives * 2 ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/ek/l/AAJLvIDM3oQvO3qRSUWtoAbeCmXobbsXmB0zIThMxX6ZnIB3gtgi-MDiqRRNjLDHn2wtifZPJ5HOihDZrsZgtiYRnPj5Qhpsxk1qJhtK1J2dQIgnKtKqPdK_-Cn2BWfYDgOCZMVIBi20eHAXlXOzpU62uA7TK54GlRrEvh5OudEIzEnfSLxgbQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Help Desk Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEKsystems</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are seeking a Help Desk Technician to join our team! You will be supporting one of the largest, most collaborative enterprise service desks in the United States defense space. As a service desk ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIHevWwzQ-Su8XeXY94EE6Z_eZfp4N8SQxZMPMAhOJ0BbDHZB_QXtwFqbIsRRKyPM9nl3QLyP1MxRgzK2KYgOk3e8PQi3ycAYsuQZHEMTcDBdSioUpuXxaZisBGoMrcaakYNcERPC7PTW8L76zZo5hbP5O7mj5pnVP7brJUUoQPp7bQJtA9Kg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field Service - Maintenance Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Productivity Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field Service - Maintenance Technician A Field Service Technician (Service Engineer) contributes to the success of Productivity by keeping our customers' CNC machine tools running at peak operating ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALLssnHpuJxLijTfJGndmaXOGmwV6-ixXLOrkQXFLEAj4QJcgfeNcFSRapii_IIqdyY9AVYIyPSlhVHY4at4U5Qje0BaPIXgLvFCPoPC74z-8p1arNtR7fLx97Ts8Kg4sioy_rgxp-6tP4oc7ZXWygsYWH6e5WuLV_TjG2R3dEcvTIELO9mzQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ascend Staffing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Salt Lake, UT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Help Desk Technician Company: Ascend Staffing Reports To: CIO Pay: $15 - $16 + monthly bonus Job Summary IT Associate will provide technical support for Ascend Staffing's internal users, and assist ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALUlgqoA5QJMPN5gdBHN32qvcz-dye8wpR2A3Tbj3slanxNX0O3xb9S2w89CuEB2IV07tTRt4-CrbTVPSEK9LZkNyv_bWH8_tde7NkIcmPJazKIoKbpebt5KINHpC4bACK-JEMEId8GJTbyUnEfqXAIFPQJwYJXGzFFrJQZdWOkmtZu9XNwMQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Remote Desktop Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Argo Networks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>***This position requires commute to our offices. It is our clients that are remote.*** ***COVID vaccination is required to be considered for this position.*** Duties and Responsibilities * Be able to ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/ek/l/AALX4kNdsNU2JE0RZteP5IwKgVI05x9b5hKwdXPejObxuXgMcA8h5AACRueBxxNgHHvKd14ehKN8zDBLlrL-S4TiILtmEg6Cdyk9H_eaao3en5W70pQXFx9wbgiOIU-tQmivZOmbPXhKPRnbkYi2BSXZE9VL6OToZJFOyitztpLCvVIInAn6_w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Support Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mainstreet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are seeking an outgoing, eager to learn, tier 1 Support Technician to join our team ... Customer/End user desktop/laptop computers and related equipment (I.E. Hard drives, keyboard, mice ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALD_JWrxB23ytr2i78xKcpqLcmlWrc_5_VbO8KPoTZAi_hQi_TiQ55Ml53GPWBNoWYXlgCQks6O_--z1oEPRFmwsG2pku8Lebq3t7GNV7smFaC9955Y9X7Kwz3ZgxDHZfUgy_kRM12V6TRqmbw2xkNVROJjjkQv6j97kjDdCNXJA1RxF1dGgw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field Equipment Service Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reddy Ice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POSITION PURPOSE: This position ensures that Reddy Ice field service equipment is well-maintained and functioning properly. DUTIES AND RESPONSIBILITIES: 1. Conducts repairs, service, installations ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIbhIMt4ZvsQdcSwJ1hYaYlHoSjcnim-nHmN9jNQ-J8ujthXJUcYsVCO8lyPW7IZxGIZ7-A32Qj4pj2BJMdbwIES8f3QC_1c4bIv14Ot4D8gJlOnIPSWpmq9bpmyapHk1C5l37gkuUI3IWeMYggRJ6Wf6izcB3tHZDjeWl6Fd_7uOI5GA-zjQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In-Home Solutions Technician</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DISH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check out our video to experience a day in the life of a DISH Technician: The In-Home Services organization supports thousands of talented employees in 125+ facilities delivering service solutions to ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/ek/l/AALntpMnvMcrNqgoAHjjBUVp2W00m-te5My-hrH6tociIrf0HSp1x-7Qlnnq2SgYr-T_0Xx2DvcDlVjz9H9AVKfNGZqRP7K_tdEKo4uw2FUnNiQhjKAM_kecphbeL8AbURN04xPV9pyxUTlaxbBSpmDR2l55K8W2MJuyjdaBoW8kkmCsOymzkQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entry Level Service Desk (Top Secret clearance)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description Our team is seeking a qualified Level 1 service desk technicians to support one of the largest, most collaborative enterprise service desks in the defense space. Under the Global Service ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALy7JnwAPo099-nJECazssO6b_NfTFMiNTMfv7cFB2OLwjUpdTUh1XGCn3OPo02j4Fjglh_2S1OOaIqEzNUCB2yGdAd_dz9ofucO1Ye1ickj4R_dlslXfH8z1DQOf8lXeIfNDrEGvECj7iIKCFdS0aVQzlK_S7PyFd9aPWIH6BnqVdF9Z_f52Y</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,7 +545,195 @@
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
